--- a/data/trans_dic/P25_9-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25_9-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece mala circulación</t>
+          <t>Población que padece mala circulación (tasa de respuesta: 99,85%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,92%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>19,35%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>19,99%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>17,52%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>24,74%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>21,02%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>12,87%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>13,08%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>11,36%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>22,56%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>13,14%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>13,04%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>11,6%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>16,06%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>14,27%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>15,95%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,26; 9,25</t>
+          <t>4,48; 9,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,83; 8,64</t>
+          <t>3,66; 8,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,54; 8,11</t>
+          <t>3,43; 7,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,54; 9,56</t>
+          <t>4,5; 9,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,1; 22,18</t>
+          <t>5,39; 9,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,23; 22,98</t>
+          <t>7,08; 11,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,31; 19,5</t>
+          <t>16,37; 22,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,07; 24,34</t>
+          <t>17,13; 22,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,04; 15,11</t>
+          <t>15,01; 20,21</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,42; 15,15</t>
+          <t>21,22; 28,71</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,76; 13,31</t>
+          <t>18,03; 24,53</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,2; 16,22</t>
+          <t>19,76; 25,51</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>11,39; 15,28</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>11,29; 15,15</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>10,02; 13,61</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>13,93; 18,57</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>12,37; 16,51</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>14,04; 17,92</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>15,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>23,05%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>21,46%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>23,26%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>11,03%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>10,34%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>11,47%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>15,18%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>13,57%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>15,28%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 5,89</t>
+          <t>2,62; 6,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,08; 7,85</t>
+          <t>3,11; 7,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,4; 7,11</t>
+          <t>3,48; 6,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,67; 10,15</t>
+          <t>5,39; 10,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,15; 21,14</t>
+          <t>3,73; 10,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,86; 19,23</t>
+          <t>4,95; 11,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,75; 21,75</t>
+          <t>14,25; 21,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,82; 27,6</t>
+          <t>13,01; 19,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,77; 12,88</t>
+          <t>14,42; 22,03</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,6; 12,53</t>
+          <t>19,41; 27,59</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,74; 13,86</t>
+          <t>16,17; 28,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,57; 17,32</t>
+          <t>17,94; 29,6</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>9,28; 13,66</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>8,55; 12,69</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>9,49; 13,83</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>12,97; 17,74</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>10,52; 17,52</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>12,3; 19,42</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>8,04%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>20,97%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,76%</t>
+          <t>19,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>22,05%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>19,18%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>24,92%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>13,52%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>14,19%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>11,2%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>12,58%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>14,68%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>11,61%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>16,37%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,38; 12,62</t>
+          <t>2,41; 11,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,64; 12,53</t>
+          <t>4,03; 12,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,51; 7,96</t>
+          <t>1,65; 9,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>3,93; 15,02</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>13,44; 29,64</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,94; 28,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,08; 25,62</t>
+          <t>12,61; 26,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>16,46; 29,35</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>13,63; 25,81</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>17,57; 33,97</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>9,03; 18,16</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>10,4; 17,92</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>8,05; 15,08</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>9,04; 17,28</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>11,04; 19,25</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>8,41; 15,63</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>11,85; 21,9</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>7,05%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>7,08%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>18,57%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>18,8%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>18,64%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>17,84%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>24,12%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>21,12%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>12,09%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>12,15%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>11,4%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>22,71%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>12,25%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>12,18%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>11,55%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>15,75%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>14,11%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>15,8%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,16; 7,09</t>
+          <t>4,07; 6,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,18; 7,17</t>
+          <t>4,3; 7,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 6,52</t>
+          <t>3,8; 6,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,63; 8,89</t>
+          <t>5,65; 8,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,44; 21,03</t>
+          <t>5,52; 8,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,67; 20,58</t>
+          <t>7,13; 10,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,71; 19,83</t>
+          <t>16,7; 21,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,56; 24,14</t>
+          <t>16,63; 20,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,77; 13,58</t>
+          <t>15,95; 20,12</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,96; 13,65</t>
+          <t>21,6; 26,54</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,28; 12,79</t>
+          <t>18,87; 24,11</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,47; 15,82</t>
+          <t>20,35; 25,48</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>10,84; 13,63</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>10,93; 13,54</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>10,37; 13,03</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>14,15; 17,35</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>12,5; 15,93</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>14,27; 17,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece mala circulación (tasa de respuesta: 99,85%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>105238</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>88104</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>83570</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>106400</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>16647</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>20861</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>347780</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>364708</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>317938</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>446085</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>49747</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>53244</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>453018</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>452813</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>401508</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>552485</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>66394</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>74105</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>73858; 152392</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>60295; 136593</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>56377; 129424</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>73712; 147351</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12324; 21440</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>16177; 25792</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>294203; 407423</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>312636; 416356</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>272314; 366783</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>382609; 517624</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>42676; 58060</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>46630; 60202</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>392812; 526837</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>392049; 526014</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>346717; 470851</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>479278; 638834</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>57534; 76781</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>65226; 83262</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>56434</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>67228</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>69759</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>102223</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4641</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5812</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>247440</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>217176</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>245663</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>314042</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>14072</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>15563</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>303875</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>284404</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>315422</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>416265</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>18713</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>21376</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>36024; 82695</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>42935; 106475</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>47807; 96042</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>74302; 141323</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2693; 7294</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3609; 8428</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>196990; 302794</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>178363; 263793</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>198255; 302853</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>264447; 375969</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>10604; 18560</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>12007; 19807</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>255904; 376578</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>235221; 348956</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>260921; 380429</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>355719; 486561</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>14507; 24152</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>17211; 27169</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>25472</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>31978</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>17940</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>33991</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>77798</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>89948</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>78988</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>102656</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>103270</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>121926</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>96927</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>136647</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10107; 50205</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17046; 54680</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6991; 39383</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>16608; 63526</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>50533; 105090</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>67131; 119698</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>56152; 106305</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>72377; 139912</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>74205; 141814</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>91739; 159875</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>70239; 130456</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>98917; 182806</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>302.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>293.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>315.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>374.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>366.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>375.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>336.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>187144</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>187310</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>171269</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>242615</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>21288</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>26673</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>673019</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>671832</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>642589</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>862782</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>63819</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>68807</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>860163</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>859142</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>813858</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1105397</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>85106</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>95481</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>140298; 238638</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>148339; 248468</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>130878; 221985</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>194353; 304236</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>16614; 26809</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>21486; 32952</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>597878; 751755</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>599393; 741620</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>574390; 724480</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>772684; 949610</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>57036; 72873</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>61651; 77187</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>761170; 957656</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>770909; 954791</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>730599; 917653</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>992739; 1217375</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>75368; 96037</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>86233; 105818</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
